--- a/backend/storage/excel/Помещения.xlsx
+++ b/backend/storage/excel/Помещения.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkuzu\OneDrive\Desktop\МОСОБЛСУД\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkuzu\OneDrive\Desktop\Projects\cshd3\backend\storage\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF8958B-6811-4756-A9E2-28E9EEC93EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49D668C-CF73-4828-91EA-6B35507F2F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="55">
   <si>
     <t>D</t>
   </si>
@@ -109,6 +109,87 @@
   </si>
   <si>
     <t>ККС</t>
+  </si>
+  <si>
+    <t>Помощники руководителей</t>
+  </si>
+  <si>
+    <t>Аппарат суда</t>
+  </si>
+  <si>
+    <t>Архив</t>
+  </si>
+  <si>
+    <t>Судья</t>
+  </si>
+  <si>
+    <t>Руководство суда</t>
+  </si>
+  <si>
+    <t>Канцелярия</t>
+  </si>
+  <si>
+    <t>Зал с/з</t>
+  </si>
+  <si>
+    <t>Присяжные</t>
+  </si>
+  <si>
+    <t>Техническое помещение</t>
+  </si>
+  <si>
+    <t>Обучение</t>
+  </si>
+  <si>
+    <t>Адвокаты</t>
+  </si>
+  <si>
+    <t>Прокуроры</t>
+  </si>
+  <si>
+    <t>Водители</t>
+  </si>
+  <si>
+    <t>Столовая</t>
+  </si>
+  <si>
+    <t>канцелярия</t>
+  </si>
+  <si>
+    <t>Почта России</t>
+  </si>
+  <si>
+    <t>Конвой</t>
+  </si>
+  <si>
+    <t>Управ. комания</t>
+  </si>
+  <si>
+    <t>Мед. пункт</t>
+  </si>
+  <si>
+    <t>Зал совещаний</t>
+  </si>
+  <si>
+    <t>Гримерная</t>
+  </si>
+  <si>
+    <t>Росгвардия</t>
+  </si>
+  <si>
+    <t>Бюро пропусков</t>
+  </si>
+  <si>
+    <t>Клининг</t>
+  </si>
+  <si>
+    <t>Управ. Комания</t>
+  </si>
+  <si>
+    <t>Совещательная ком.</t>
+  </si>
+  <si>
+    <t>Президиум</t>
   </si>
 </sst>
 </file>
@@ -627,15 +708,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C629"/>
+  <dimension ref="A1:D629"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A615" workbookViewId="0">
-      <selection activeCell="S622" sqref="S622"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="58.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,8 +731,11 @@
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -656,8 +745,11 @@
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -667,8 +759,11 @@
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -678,8 +773,11 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -689,8 +787,11 @@
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -700,8 +801,11 @@
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
@@ -711,8 +815,11 @@
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
@@ -722,8 +829,11 @@
       <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
@@ -733,8 +843,11 @@
       <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -744,8 +857,11 @@
       <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
@@ -755,8 +871,11 @@
       <c r="C11" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -766,8 +885,11 @@
       <c r="C12" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>1</v>
       </c>
@@ -777,8 +899,11 @@
       <c r="C13" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
@@ -788,8 +913,11 @@
       <c r="C14" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>1</v>
       </c>
@@ -799,8 +927,11 @@
       <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>0</v>
       </c>
@@ -810,8 +941,11 @@
       <c r="C16" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>0</v>
       </c>
@@ -821,8 +955,11 @@
       <c r="C17" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>0</v>
       </c>
@@ -832,8 +969,11 @@
       <c r="C18" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>1</v>
       </c>
@@ -843,8 +983,11 @@
       <c r="C19" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
@@ -854,8 +997,11 @@
       <c r="C20" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>0</v>
       </c>
@@ -865,8 +1011,11 @@
       <c r="C21" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -876,8 +1025,11 @@
       <c r="C22" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>1</v>
       </c>
@@ -887,8 +1039,11 @@
       <c r="C23" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>2</v>
       </c>
@@ -898,8 +1053,11 @@
       <c r="C24" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>3</v>
       </c>
@@ -909,8 +1067,11 @@
       <c r="C25" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>1</v>
       </c>
@@ -920,8 +1081,11 @@
       <c r="C26" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -931,8 +1095,11 @@
       <c r="C27" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
@@ -942,8 +1109,11 @@
       <c r="C28" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>1</v>
       </c>
@@ -953,8 +1123,11 @@
       <c r="C29" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>0</v>
       </c>
@@ -964,8 +1137,11 @@
       <c r="C30" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>3</v>
       </c>
@@ -975,8 +1151,11 @@
       <c r="C31" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>3</v>
       </c>
@@ -986,8 +1165,11 @@
       <c r="C32" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>3</v>
       </c>
@@ -997,8 +1179,11 @@
       <c r="C33" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>3</v>
       </c>
@@ -1008,8 +1193,11 @@
       <c r="C34" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>3</v>
       </c>
@@ -1019,8 +1207,11 @@
       <c r="C35" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>2</v>
       </c>
@@ -1030,8 +1221,11 @@
       <c r="C36" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>3</v>
       </c>
@@ -1041,8 +1235,11 @@
       <c r="C37" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>1</v>
       </c>
@@ -1052,8 +1249,11 @@
       <c r="C38" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>3</v>
       </c>
@@ -1063,8 +1263,11 @@
       <c r="C39" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>0</v>
       </c>
@@ -1074,8 +1277,11 @@
       <c r="C40" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>3</v>
       </c>
@@ -1085,8 +1291,11 @@
       <c r="C41" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>3</v>
       </c>
@@ -1096,8 +1305,11 @@
       <c r="C42" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>3</v>
       </c>
@@ -1107,8 +1319,11 @@
       <c r="C43" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>2</v>
       </c>
@@ -1118,8 +1333,11 @@
       <c r="C44" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>3</v>
       </c>
@@ -1129,8 +1347,11 @@
       <c r="C45" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D45" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>2</v>
       </c>
@@ -1140,8 +1361,11 @@
       <c r="C46" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>0</v>
       </c>
@@ -1151,8 +1375,11 @@
       <c r="C47" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>1</v>
       </c>
@@ -1162,8 +1389,11 @@
       <c r="C48" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D48" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>0</v>
       </c>
@@ -1173,8 +1403,11 @@
       <c r="C49" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D49" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>0</v>
       </c>
@@ -1184,8 +1417,11 @@
       <c r="C50" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D50" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>0</v>
       </c>
@@ -1195,8 +1431,11 @@
       <c r="C51" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D51" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>1</v>
       </c>
@@ -1206,8 +1445,11 @@
       <c r="C52" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D52" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>0</v>
       </c>
@@ -1217,8 +1459,11 @@
       <c r="C53" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D53" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>3</v>
       </c>
@@ -1228,8 +1473,11 @@
       <c r="C54" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D54" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>3</v>
       </c>
@@ -1239,8 +1487,11 @@
       <c r="C55" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D55" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>3</v>
       </c>
@@ -1250,8 +1501,11 @@
       <c r="C56" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D56" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>3</v>
       </c>
@@ -1261,8 +1515,11 @@
       <c r="C57" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D57" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>2</v>
       </c>
@@ -1272,8 +1529,11 @@
       <c r="C58" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D58" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>2</v>
       </c>
@@ -1283,8 +1543,11 @@
       <c r="C59" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>2</v>
       </c>
@@ -1294,8 +1557,11 @@
       <c r="C60" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D60" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>2</v>
       </c>
@@ -1305,8 +1571,11 @@
       <c r="C61" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D61" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>2</v>
       </c>
@@ -1316,8 +1585,11 @@
       <c r="C62" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D62" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>0</v>
       </c>
@@ -1327,8 +1599,11 @@
       <c r="C63" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D63" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>0</v>
       </c>
@@ -1338,8 +1613,11 @@
       <c r="C64" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D64" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>0</v>
       </c>
@@ -1349,8 +1627,11 @@
       <c r="C65" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D65" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>0</v>
       </c>
@@ -1360,8 +1641,11 @@
       <c r="C66" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D66" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>0</v>
       </c>
@@ -1371,8 +1655,11 @@
       <c r="C67" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D67" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>1</v>
       </c>
@@ -1382,8 +1669,11 @@
       <c r="C68" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D68" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>1</v>
       </c>
@@ -1393,8 +1683,11 @@
       <c r="C69" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D69" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>1</v>
       </c>
@@ -1404,8 +1697,11 @@
       <c r="C70" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D70" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>1</v>
       </c>
@@ -1415,8 +1711,11 @@
       <c r="C71" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D71" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>1</v>
       </c>
@@ -1426,8 +1725,11 @@
       <c r="C72" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D72" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>2</v>
       </c>
@@ -1437,8 +1739,11 @@
       <c r="C73" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D73" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>2</v>
       </c>
@@ -1448,8 +1753,11 @@
       <c r="C74" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D74" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>2</v>
       </c>
@@ -1459,8 +1767,11 @@
       <c r="C75" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D75" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>2</v>
       </c>
@@ -1470,8 +1781,11 @@
       <c r="C76" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D76" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>3</v>
       </c>
@@ -1481,8 +1795,11 @@
       <c r="C77" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D77" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>3</v>
       </c>
@@ -1492,8 +1809,11 @@
       <c r="C78" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D78" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>0</v>
       </c>
@@ -1503,8 +1823,11 @@
       <c r="C79" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D79" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>0</v>
       </c>
@@ -1514,8 +1837,11 @@
       <c r="C80" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D80" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>0</v>
       </c>
@@ -1525,8 +1851,11 @@
       <c r="C81" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D81" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>0</v>
       </c>
@@ -1536,8 +1865,11 @@
       <c r="C82" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D82" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>0</v>
       </c>
@@ -1547,8 +1879,11 @@
       <c r="C83" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D83" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>0</v>
       </c>
@@ -1558,8 +1893,11 @@
       <c r="C84" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D84" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>0</v>
       </c>
@@ -1569,8 +1907,11 @@
       <c r="C85" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D85" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>0</v>
       </c>
@@ -1580,8 +1921,11 @@
       <c r="C86" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D86" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>0</v>
       </c>
@@ -1591,8 +1935,11 @@
       <c r="C87" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D87" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>1</v>
       </c>
@@ -1602,8 +1949,11 @@
       <c r="C88" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D88" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>1</v>
       </c>
@@ -1613,8 +1963,11 @@
       <c r="C89" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D89" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>1</v>
       </c>
@@ -1624,8 +1977,11 @@
       <c r="C90" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D90" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>0</v>
       </c>
@@ -1635,8 +1991,11 @@
       <c r="C91" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D91" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>3</v>
       </c>
@@ -1646,8 +2005,11 @@
       <c r="C92" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D92" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>1</v>
       </c>
@@ -1657,8 +2019,11 @@
       <c r="C93" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D93" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>3</v>
       </c>
@@ -1668,8 +2033,11 @@
       <c r="C94" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D94" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>1</v>
       </c>
@@ -1679,8 +2047,11 @@
       <c r="C95" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D95" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>0</v>
       </c>
@@ -1690,8 +2061,11 @@
       <c r="C96" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D96" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>0</v>
       </c>
@@ -1701,8 +2075,11 @@
       <c r="C97" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D97" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>3</v>
       </c>
@@ -1712,8 +2089,11 @@
       <c r="C98" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D98" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>1</v>
       </c>
@@ -1723,8 +2103,11 @@
       <c r="C99" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D99" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>3</v>
       </c>
@@ -1734,8 +2117,11 @@
       <c r="C100" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D100" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>2</v>
       </c>
@@ -1745,8 +2131,11 @@
       <c r="C101" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D101" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>1</v>
       </c>
@@ -1756,8 +2145,11 @@
       <c r="C102" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D102" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>3</v>
       </c>
@@ -1767,8 +2159,11 @@
       <c r="C103" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D103" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>3</v>
       </c>
@@ -1778,8 +2173,11 @@
       <c r="C104" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D104" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>3</v>
       </c>
@@ -1789,8 +2187,11 @@
       <c r="C105" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D105" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>3</v>
       </c>
@@ -1800,8 +2201,11 @@
       <c r="C106" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D106" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>3</v>
       </c>
@@ -1811,8 +2215,11 @@
       <c r="C107" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D107" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>0</v>
       </c>
@@ -1822,8 +2229,11 @@
       <c r="C108" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D108" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>3</v>
       </c>
@@ -1833,8 +2243,11 @@
       <c r="C109" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D109" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>3</v>
       </c>
@@ -1844,8 +2257,11 @@
       <c r="C110" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D110" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>2</v>
       </c>
@@ -1855,8 +2271,11 @@
       <c r="C111" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D111" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
         <v>0</v>
       </c>
@@ -1866,8 +2285,11 @@
       <c r="C112" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D112" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>2</v>
       </c>
@@ -1877,8 +2299,11 @@
       <c r="C113" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D113" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
         <v>2</v>
       </c>
@@ -1888,8 +2313,11 @@
       <c r="C114" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D114" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
         <v>1</v>
       </c>
@@ -1899,8 +2327,11 @@
       <c r="C115" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D115" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>3</v>
       </c>
@@ -1910,8 +2341,11 @@
       <c r="C116" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D116" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
         <v>3</v>
       </c>
@@ -1921,8 +2355,11 @@
       <c r="C117" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D117" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
         <v>0</v>
       </c>
@@ -1932,8 +2369,11 @@
       <c r="C118" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D118" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
         <v>2</v>
       </c>
@@ -1943,8 +2383,11 @@
       <c r="C119" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D119" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
         <v>1</v>
       </c>
@@ -1954,8 +2397,11 @@
       <c r="C120" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D120" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>0</v>
       </c>
@@ -1965,8 +2411,11 @@
       <c r="C121" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D121" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
         <v>2</v>
       </c>
@@ -1976,8 +2425,11 @@
       <c r="C122" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D122" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
         <v>0</v>
       </c>
@@ -1987,8 +2439,11 @@
       <c r="C123" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D123" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
         <v>0</v>
       </c>
@@ -1998,8 +2453,11 @@
       <c r="C124" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D124" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
         <v>3</v>
       </c>
@@ -2009,8 +2467,11 @@
       <c r="C125" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D125" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
         <v>3</v>
       </c>
@@ -2020,8 +2481,11 @@
       <c r="C126" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D126" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
         <v>0</v>
       </c>
@@ -2031,8 +2495,11 @@
       <c r="C127" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D127" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
         <v>0</v>
       </c>
@@ -2042,8 +2509,11 @@
       <c r="C128" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D128" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
         <v>2</v>
       </c>
@@ -2053,8 +2523,11 @@
       <c r="C129" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D129" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
         <v>2</v>
       </c>
@@ -2064,8 +2537,11 @@
       <c r="C130" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D130" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
         <v>1</v>
       </c>
@@ -2075,8 +2551,11 @@
       <c r="C131" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D131" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
         <v>0</v>
       </c>
@@ -2086,8 +2565,11 @@
       <c r="C132" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D132" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="8" t="s">
         <v>0</v>
       </c>
@@ -2097,8 +2579,11 @@
       <c r="C133" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D133" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="8" t="s">
         <v>1</v>
       </c>
@@ -2108,8 +2593,11 @@
       <c r="C134" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D134" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="8" t="s">
         <v>0</v>
       </c>
@@ -2119,8 +2607,11 @@
       <c r="C135" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D135" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="8" t="s">
         <v>0</v>
       </c>
@@ -2130,8 +2621,11 @@
       <c r="C136" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D136" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="8" t="s">
         <v>1</v>
       </c>
@@ -2141,8 +2635,11 @@
       <c r="C137" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D137" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="8" t="s">
         <v>2</v>
       </c>
@@ -2152,8 +2649,11 @@
       <c r="C138" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D138" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="8" t="s">
         <v>3</v>
       </c>
@@ -2163,8 +2663,11 @@
       <c r="C139" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D139" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="8" t="s">
         <v>1</v>
       </c>
@@ -2174,8 +2677,11 @@
       <c r="C140" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D140" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="8" t="s">
         <v>2</v>
       </c>
@@ -2185,8 +2691,11 @@
       <c r="C141" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D141" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
         <v>2</v>
       </c>
@@ -2196,8 +2705,11 @@
       <c r="C142" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D142" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="8" t="s">
         <v>3</v>
       </c>
@@ -2207,8 +2719,11 @@
       <c r="C143" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D143" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="8" t="s">
         <v>3</v>
       </c>
@@ -2218,8 +2733,11 @@
       <c r="C144" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D144" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="8" t="s">
         <v>0</v>
       </c>
@@ -2229,8 +2747,11 @@
       <c r="C145" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D145" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>2</v>
       </c>
@@ -2240,8 +2761,11 @@
       <c r="C146" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D146" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>1</v>
       </c>
@@ -2251,8 +2775,11 @@
       <c r="C147" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D147" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>1</v>
       </c>
@@ -2262,8 +2789,11 @@
       <c r="C148" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D148" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>2</v>
       </c>
@@ -2273,8 +2803,11 @@
       <c r="C149" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D149" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
         <v>2</v>
       </c>
@@ -2284,8 +2817,11 @@
       <c r="C150" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D150" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
         <v>2</v>
       </c>
@@ -2295,8 +2831,11 @@
       <c r="C151" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D151" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
         <v>2</v>
       </c>
@@ -2306,8 +2845,11 @@
       <c r="C152" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D152" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>3</v>
       </c>
@@ -2317,8 +2859,11 @@
       <c r="C153" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D153" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>3</v>
       </c>
@@ -2328,8 +2873,11 @@
       <c r="C154" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D154" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>0</v>
       </c>
@@ -2339,8 +2887,11 @@
       <c r="C155" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D155" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>3</v>
       </c>
@@ -2350,8 +2901,11 @@
       <c r="C156" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D156" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>0</v>
       </c>
@@ -2361,8 +2915,11 @@
       <c r="C157" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D157" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>2</v>
       </c>
@@ -2372,8 +2929,11 @@
       <c r="C158" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D158" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
         <v>0</v>
       </c>
@@ -2383,8 +2943,11 @@
       <c r="C159" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D159" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
         <v>3</v>
       </c>
@@ -2394,8 +2957,11 @@
       <c r="C160" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D160" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>3</v>
       </c>
@@ -2405,8 +2971,11 @@
       <c r="C161" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D161" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
         <v>3</v>
       </c>
@@ -2416,8 +2985,11 @@
       <c r="C162" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D162" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>3</v>
       </c>
@@ -2427,8 +2999,11 @@
       <c r="C163" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D163" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>1</v>
       </c>
@@ -2438,8 +3013,11 @@
       <c r="C164" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D164" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>3</v>
       </c>
@@ -2449,8 +3027,11 @@
       <c r="C165" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D165" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>2</v>
       </c>
@@ -2460,8 +3041,11 @@
       <c r="C166" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D166" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
         <v>1</v>
       </c>
@@ -2471,8 +3055,11 @@
       <c r="C167" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D167" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
         <v>1</v>
       </c>
@@ -2482,8 +3069,11 @@
       <c r="C168" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D168" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
         <v>3</v>
       </c>
@@ -2493,8 +3083,11 @@
       <c r="C169" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D169" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
         <v>1</v>
       </c>
@@ -2504,8 +3097,11 @@
       <c r="C170" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D170" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>2</v>
       </c>
@@ -2515,8 +3111,11 @@
       <c r="C171" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D171" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>1</v>
       </c>
@@ -2526,8 +3125,11 @@
       <c r="C172" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D172" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>1</v>
       </c>
@@ -2537,8 +3139,11 @@
       <c r="C173" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D173" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>1</v>
       </c>
@@ -2548,8 +3153,11 @@
       <c r="C174" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D174" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
         <v>3</v>
       </c>
@@ -2559,8 +3167,11 @@
       <c r="C175" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D175" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="8" t="s">
         <v>2</v>
       </c>
@@ -2570,8 +3181,11 @@
       <c r="C176" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D176" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="8" t="s">
         <v>1</v>
       </c>
@@ -2581,8 +3195,11 @@
       <c r="C177" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D177" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="8" t="s">
         <v>1</v>
       </c>
@@ -2592,8 +3209,11 @@
       <c r="C178" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D178" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="8" t="s">
         <v>1</v>
       </c>
@@ -2603,8 +3223,11 @@
       <c r="C179" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D179" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="8" t="s">
         <v>3</v>
       </c>
@@ -2614,8 +3237,11 @@
       <c r="C180" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D180" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="8" t="s">
         <v>1</v>
       </c>
@@ -2625,8 +3251,11 @@
       <c r="C181" s="13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D181" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
         <v>1</v>
       </c>
@@ -2636,8 +3265,11 @@
       <c r="C182" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D182" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
         <v>0</v>
       </c>
@@ -2647,8 +3279,11 @@
       <c r="C183" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D183" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
         <v>0</v>
       </c>
@@ -2658,8 +3293,11 @@
       <c r="C184" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D184" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
         <v>0</v>
       </c>
@@ -2669,8 +3307,11 @@
       <c r="C185" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D185" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
         <v>0</v>
       </c>
@@ -2680,8 +3321,11 @@
       <c r="C186" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D186" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
         <v>1</v>
       </c>
@@ -2691,8 +3335,11 @@
       <c r="C187" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D187" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
         <v>1</v>
       </c>
@@ -2702,8 +3349,11 @@
       <c r="C188" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D188" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
         <v>1</v>
       </c>
@@ -2713,8 +3363,11 @@
       <c r="C189" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D189" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
         <v>3</v>
       </c>
@@ -2724,8 +3377,11 @@
       <c r="C190" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D190" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
         <v>3</v>
       </c>
@@ -2735,8 +3391,11 @@
       <c r="C191" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D191" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
         <v>3</v>
       </c>
@@ -2746,8 +3405,11 @@
       <c r="C192" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D192" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
         <v>3</v>
       </c>
@@ -2757,8 +3419,11 @@
       <c r="C193" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D193" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
         <v>0</v>
       </c>
@@ -2768,8 +3433,11 @@
       <c r="C194" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D194" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
         <v>0</v>
       </c>
@@ -2779,8 +3447,11 @@
       <c r="C195" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D195" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
         <v>3</v>
       </c>
@@ -2790,8 +3461,11 @@
       <c r="C196" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D196" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
         <v>3</v>
       </c>
@@ -2801,8 +3475,11 @@
       <c r="C197" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D197" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
         <v>2</v>
       </c>
@@ -2812,8 +3489,11 @@
       <c r="C198" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D198" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
         <v>2</v>
       </c>
@@ -2823,8 +3503,11 @@
       <c r="C199" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D199" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
         <v>0</v>
       </c>
@@ -2834,8 +3517,11 @@
       <c r="C200" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D200" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
         <v>0</v>
       </c>
@@ -2845,8 +3531,11 @@
       <c r="C201" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D201" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
         <v>2</v>
       </c>
@@ -2856,8 +3545,11 @@
       <c r="C202" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D202" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
         <v>2</v>
       </c>
@@ -2867,8 +3559,11 @@
       <c r="C203" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D203" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
         <v>3</v>
       </c>
@@ -2878,8 +3573,11 @@
       <c r="C204" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D204" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
         <v>3</v>
       </c>
@@ -2889,8 +3587,11 @@
       <c r="C205" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D205" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
         <v>1</v>
       </c>
@@ -2900,8 +3601,11 @@
       <c r="C206" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D206" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
         <v>1</v>
       </c>
@@ -2911,8 +3615,11 @@
       <c r="C207" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D207" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
         <v>2</v>
       </c>
@@ -2922,8 +3629,11 @@
       <c r="C208" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D208" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
         <v>2</v>
       </c>
@@ -2933,8 +3643,11 @@
       <c r="C209" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D209" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
         <v>1</v>
       </c>
@@ -2944,8 +3657,11 @@
       <c r="C210" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D210" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
         <v>1</v>
       </c>
@@ -2955,8 +3671,11 @@
       <c r="C211" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D211" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
         <v>3</v>
       </c>
@@ -2966,8 +3685,11 @@
       <c r="C212" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D212" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
         <v>3</v>
       </c>
@@ -2977,8 +3699,11 @@
       <c r="C213" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D213" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
         <v>0</v>
       </c>
@@ -2988,8 +3713,11 @@
       <c r="C214" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D214" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
         <v>1</v>
       </c>
@@ -2999,8 +3727,11 @@
       <c r="C215" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D215" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
         <v>2</v>
       </c>
@@ -3010,8 +3741,11 @@
       <c r="C216" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D216" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
         <v>1</v>
       </c>
@@ -3021,8 +3755,11 @@
       <c r="C217" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D217" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
         <v>1</v>
       </c>
@@ -3032,8 +3769,11 @@
       <c r="C218" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D218" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="5" t="s">
         <v>1</v>
       </c>
@@ -3043,8 +3783,11 @@
       <c r="C219" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D219" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
         <v>1</v>
       </c>
@@ -3054,8 +3797,11 @@
       <c r="C220" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D220" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="5" t="s">
         <v>1</v>
       </c>
@@ -3065,8 +3811,11 @@
       <c r="C221" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D221" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="5" t="s">
         <v>1</v>
       </c>
@@ -3076,8 +3825,11 @@
       <c r="C222" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D222" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="5" t="s">
         <v>2</v>
       </c>
@@ -3087,8 +3839,11 @@
       <c r="C223" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D223" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="5" t="s">
         <v>2</v>
       </c>
@@ -3098,8 +3853,11 @@
       <c r="C224" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D224" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="5" t="s">
         <v>1</v>
       </c>
@@ -3109,8 +3867,11 @@
       <c r="C225" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D225" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="5" t="s">
         <v>1</v>
       </c>
@@ -3120,8 +3881,11 @@
       <c r="C226" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D226" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="5" t="s">
         <v>1</v>
       </c>
@@ -3131,8 +3895,11 @@
       <c r="C227" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D227" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
         <v>1</v>
       </c>
@@ -3142,8 +3909,11 @@
       <c r="C228" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D228" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="5" t="s">
         <v>0</v>
       </c>
@@ -3153,8 +3923,11 @@
       <c r="C229" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D229" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="5" t="s">
         <v>2</v>
       </c>
@@ -3164,8 +3937,11 @@
       <c r="C230" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D230" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="5" t="s">
         <v>1</v>
       </c>
@@ -3175,8 +3951,11 @@
       <c r="C231" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D231" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="5" t="s">
         <v>1</v>
       </c>
@@ -3186,8 +3965,11 @@
       <c r="C232" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D232" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="5" t="s">
         <v>3</v>
       </c>
@@ -3197,8 +3979,11 @@
       <c r="C233" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D233" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="5" t="s">
         <v>2</v>
       </c>
@@ -3208,8 +3993,11 @@
       <c r="C234" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D234" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="5" t="s">
         <v>3</v>
       </c>
@@ -3219,8 +4007,11 @@
       <c r="C235" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D235" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="5" t="s">
         <v>1</v>
       </c>
@@ -3230,8 +4021,11 @@
       <c r="C236" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D236" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="5" t="s">
         <v>1</v>
       </c>
@@ -3241,8 +4035,11 @@
       <c r="C237" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D237" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="5" t="s">
         <v>3</v>
       </c>
@@ -3252,8 +4049,11 @@
       <c r="C238" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D238" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="5" t="s">
         <v>1</v>
       </c>
@@ -3263,8 +4063,11 @@
       <c r="C239" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D239" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="5" t="s">
         <v>2</v>
       </c>
@@ -3274,8 +4077,11 @@
       <c r="C240" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D240" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="5" t="s">
         <v>3</v>
       </c>
@@ -3285,8 +4091,11 @@
       <c r="C241" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D241" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="5" t="s">
         <v>2</v>
       </c>
@@ -3296,8 +4105,11 @@
       <c r="C242" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D242" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="5" t="s">
         <v>2</v>
       </c>
@@ -3307,8 +4119,11 @@
       <c r="C243" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D243" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="5" t="s">
         <v>2</v>
       </c>
@@ -3318,8 +4133,11 @@
       <c r="C244" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D244" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="5" t="s">
         <v>1</v>
       </c>
@@ -3329,8 +4147,11 @@
       <c r="C245" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D245" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="5" t="s">
         <v>2</v>
       </c>
@@ -3340,8 +4161,11 @@
       <c r="C246" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D246" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="5" t="s">
         <v>1</v>
       </c>
@@ -3351,8 +4175,11 @@
       <c r="C247" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D247" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="5" t="s">
         <v>2</v>
       </c>
@@ -3362,8 +4189,11 @@
       <c r="C248" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D248" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="5" t="s">
         <v>0</v>
       </c>
@@ -3373,8 +4203,11 @@
       <c r="C249" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D249" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
         <v>3</v>
       </c>
@@ -3384,8 +4217,11 @@
       <c r="C250" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D250" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
         <v>0</v>
       </c>
@@ -3395,8 +4231,11 @@
       <c r="C251" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D251" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="5" t="s">
         <v>1</v>
       </c>
@@ -3406,8 +4245,11 @@
       <c r="C252" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D252" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="5" t="s">
         <v>2</v>
       </c>
@@ -3417,8 +4259,11 @@
       <c r="C253" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D253" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="5" t="s">
         <v>1</v>
       </c>
@@ -3428,8 +4273,11 @@
       <c r="C254" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D254" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="5" t="s">
         <v>0</v>
       </c>
@@ -3439,8 +4287,11 @@
       <c r="C255" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D255" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="5" t="s">
         <v>1</v>
       </c>
@@ -3450,8 +4301,11 @@
       <c r="C256" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D256" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="5" t="s">
         <v>2</v>
       </c>
@@ -3461,8 +4315,11 @@
       <c r="C257" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D257" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="5" t="s">
         <v>0</v>
       </c>
@@ -3472,8 +4329,11 @@
       <c r="C258" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D258" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="5" t="s">
         <v>0</v>
       </c>
@@ -3483,8 +4343,11 @@
       <c r="C259" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D259" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="5" t="s">
         <v>0</v>
       </c>
@@ -3494,8 +4357,11 @@
       <c r="C260" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D260" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="5" t="s">
         <v>1</v>
       </c>
@@ -3505,8 +4371,11 @@
       <c r="C261" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D261" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="5" t="s">
         <v>0</v>
       </c>
@@ -3516,8 +4385,11 @@
       <c r="C262" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D262" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="5" t="s">
         <v>1</v>
       </c>
@@ -3527,8 +4399,11 @@
       <c r="C263" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D263" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="5" t="s">
         <v>0</v>
       </c>
@@ -3538,8 +4413,11 @@
       <c r="C264" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D264" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="5" t="s">
         <v>0</v>
       </c>
@@ -3549,8 +4427,11 @@
       <c r="C265" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D265" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="5" t="s">
         <v>0</v>
       </c>
@@ -3560,8 +4441,11 @@
       <c r="C266" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D266" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="5" t="s">
         <v>2</v>
       </c>
@@ -3571,8 +4455,11 @@
       <c r="C267" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D267" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="5" t="s">
         <v>1</v>
       </c>
@@ -3582,8 +4469,11 @@
       <c r="C268" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D268" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="5" t="s">
         <v>0</v>
       </c>
@@ -3593,8 +4483,11 @@
       <c r="C269" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D269" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="5" t="s">
         <v>2</v>
       </c>
@@ -3604,8 +4497,11 @@
       <c r="C270" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D270" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="5" t="s">
         <v>1</v>
       </c>
@@ -3615,8 +4511,11 @@
       <c r="C271" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D271" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="5" t="s">
         <v>1</v>
       </c>
@@ -3626,8 +4525,11 @@
       <c r="C272" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D272" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="5" t="s">
         <v>0</v>
       </c>
@@ -3637,8 +4539,11 @@
       <c r="C273" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D273" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="5" t="s">
         <v>1</v>
       </c>
@@ -3648,8 +4553,11 @@
       <c r="C274" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D274" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="5" t="s">
         <v>0</v>
       </c>
@@ -3659,8 +4567,11 @@
       <c r="C275" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D275" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="5" t="s">
         <v>2</v>
       </c>
@@ -3670,8 +4581,11 @@
       <c r="C276" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D276" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="5" t="s">
         <v>1</v>
       </c>
@@ -3681,8 +4595,11 @@
       <c r="C277" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D277" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="5" t="s">
         <v>3</v>
       </c>
@@ -3692,8 +4609,11 @@
       <c r="C278" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D278" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="5" t="s">
         <v>2</v>
       </c>
@@ -3703,8 +4623,11 @@
       <c r="C279" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D279" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="5" t="s">
         <v>1</v>
       </c>
@@ -3714,8 +4637,11 @@
       <c r="C280" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D280" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="5" t="s">
         <v>2</v>
       </c>
@@ -3725,8 +4651,11 @@
       <c r="C281" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D281" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="5" t="s">
         <v>1</v>
       </c>
@@ -3736,8 +4665,11 @@
       <c r="C282" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D282" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="5" t="s">
         <v>2</v>
       </c>
@@ -3747,8 +4679,11 @@
       <c r="C283" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D283" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="5" t="s">
         <v>2</v>
       </c>
@@ -3758,8 +4693,11 @@
       <c r="C284" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D284" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="5" t="s">
         <v>1</v>
       </c>
@@ -3769,8 +4707,11 @@
       <c r="C285" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D285" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="5" t="s">
         <v>1</v>
       </c>
@@ -3780,8 +4721,11 @@
       <c r="C286" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D286" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="5" t="s">
         <v>1</v>
       </c>
@@ -3791,8 +4735,11 @@
       <c r="C287" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D287" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="5" t="s">
         <v>3</v>
       </c>
@@ -3802,8 +4749,11 @@
       <c r="C288" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D288" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="5" t="s">
         <v>1</v>
       </c>
@@ -3813,8 +4763,11 @@
       <c r="C289" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D289" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="5" t="s">
         <v>2</v>
       </c>
@@ -3824,8 +4777,11 @@
       <c r="C290" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D290" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="5" t="s">
         <v>3</v>
       </c>
@@ -3835,8 +4791,11 @@
       <c r="C291" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D291" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="5" t="s">
         <v>2</v>
       </c>
@@ -3846,8 +4805,11 @@
       <c r="C292" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D292" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="5" t="s">
         <v>2</v>
       </c>
@@ -3857,8 +4819,11 @@
       <c r="C293" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D293" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="5" t="s">
         <v>0</v>
       </c>
@@ -3868,8 +4833,11 @@
       <c r="C294" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D294" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="5" t="s">
         <v>1</v>
       </c>
@@ -3879,8 +4847,11 @@
       <c r="C295" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D295" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="5" t="s">
         <v>0</v>
       </c>
@@ -3890,8 +4861,11 @@
       <c r="C296" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D296" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="5" t="s">
         <v>1</v>
       </c>
@@ -3901,8 +4875,11 @@
       <c r="C297" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D297" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="5" t="s">
         <v>1</v>
       </c>
@@ -3912,8 +4889,11 @@
       <c r="C298" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D298" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="5" t="s">
         <v>3</v>
       </c>
@@ -3923,8 +4903,11 @@
       <c r="C299" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D299" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="5" t="s">
         <v>1</v>
       </c>
@@ -3934,8 +4917,11 @@
       <c r="C300" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D300" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="5" t="s">
         <v>0</v>
       </c>
@@ -3945,8 +4931,11 @@
       <c r="C301" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D301" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="5" t="s">
         <v>0</v>
       </c>
@@ -3956,8 +4945,11 @@
       <c r="C302" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D302" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="5" t="s">
         <v>1</v>
       </c>
@@ -3967,8 +4959,11 @@
       <c r="C303" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D303" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="5" t="s">
         <v>0</v>
       </c>
@@ -3978,8 +4973,11 @@
       <c r="C304" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D304" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="5" t="s">
         <v>2</v>
       </c>
@@ -3989,8 +4987,11 @@
       <c r="C305" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D305" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="5" t="s">
         <v>2</v>
       </c>
@@ -4000,8 +5001,11 @@
       <c r="C306" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D306" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="5" t="s">
         <v>3</v>
       </c>
@@ -4011,8 +5015,11 @@
       <c r="C307" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D307" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="5" t="s">
         <v>0</v>
       </c>
@@ -4022,8 +5029,11 @@
       <c r="C308" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D308" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="5" t="s">
         <v>0</v>
       </c>
@@ -4033,8 +5043,11 @@
       <c r="C309" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D309" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="5" t="s">
         <v>2</v>
       </c>
@@ -4044,8 +5057,11 @@
       <c r="C310" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D310" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="5" t="s">
         <v>3</v>
       </c>
@@ -4055,8 +5071,11 @@
       <c r="C311" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D311" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="5" t="s">
         <v>0</v>
       </c>
@@ -4066,8 +5085,11 @@
       <c r="C312" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D312" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="5" t="s">
         <v>3</v>
       </c>
@@ -4077,8 +5099,11 @@
       <c r="C313" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D313" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="5" t="s">
         <v>2</v>
       </c>
@@ -4088,8 +5113,11 @@
       <c r="C314" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D314" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="5" t="s">
         <v>2</v>
       </c>
@@ -4099,8 +5127,11 @@
       <c r="C315" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D315" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="5" t="s">
         <v>0</v>
       </c>
@@ -4110,8 +5141,11 @@
       <c r="C316" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D316" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="5" t="s">
         <v>1</v>
       </c>
@@ -4121,8 +5155,11 @@
       <c r="C317" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D317" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="5" t="s">
         <v>2</v>
       </c>
@@ -4132,8 +5169,11 @@
       <c r="C318" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D318" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="5" t="s">
         <v>2</v>
       </c>
@@ -4143,8 +5183,11 @@
       <c r="C319" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D319" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="5" t="s">
         <v>0</v>
       </c>
@@ -4154,8 +5197,11 @@
       <c r="C320" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D320" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="5" t="s">
         <v>1</v>
       </c>
@@ -4165,8 +5211,11 @@
       <c r="C321" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D321" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="5" t="s">
         <v>3</v>
       </c>
@@ -4176,8 +5225,11 @@
       <c r="C322" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D322" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="5" t="s">
         <v>3</v>
       </c>
@@ -4187,8 +5239,11 @@
       <c r="C323" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D323" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="5" t="s">
         <v>3</v>
       </c>
@@ -4198,8 +5253,11 @@
       <c r="C324" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D324" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="5" t="s">
         <v>2</v>
       </c>
@@ -4209,8 +5267,11 @@
       <c r="C325" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D325" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="5" t="s">
         <v>0</v>
       </c>
@@ -4220,8 +5281,11 @@
       <c r="C326" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D326" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="5" t="s">
         <v>2</v>
       </c>
@@ -4231,8 +5295,11 @@
       <c r="C327" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D327" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="5" t="s">
         <v>3</v>
       </c>
@@ -4242,8 +5309,11 @@
       <c r="C328" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D328" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="5" t="s">
         <v>0</v>
       </c>
@@ -4253,8 +5323,11 @@
       <c r="C329" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D329" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="5" t="s">
         <v>1</v>
       </c>
@@ -4264,8 +5337,11 @@
       <c r="C330" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D330" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="5" t="s">
         <v>3</v>
       </c>
@@ -4275,8 +5351,11 @@
       <c r="C331" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D331" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="5" t="s">
         <v>2</v>
       </c>
@@ -4286,8 +5365,11 @@
       <c r="C332" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D332" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="5" t="s">
         <v>1</v>
       </c>
@@ -4297,8 +5379,11 @@
       <c r="C333" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D333" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="5" t="s">
         <v>1</v>
       </c>
@@ -4308,8 +5393,11 @@
       <c r="C334" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D334" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="5" t="s">
         <v>3</v>
       </c>
@@ -4319,8 +5407,11 @@
       <c r="C335" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D335" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="5" t="s">
         <v>1</v>
       </c>
@@ -4330,8 +5421,11 @@
       <c r="C336" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D336" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="5" t="s">
         <v>2</v>
       </c>
@@ -4341,8 +5435,11 @@
       <c r="C337" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D337" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="5" t="s">
         <v>2</v>
       </c>
@@ -4352,8 +5449,11 @@
       <c r="C338" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D338" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="5" t="s">
         <v>1</v>
       </c>
@@ -4363,8 +5463,11 @@
       <c r="C339" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D339" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="5" t="s">
         <v>2</v>
       </c>
@@ -4374,8 +5477,11 @@
       <c r="C340" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D340" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="5" t="s">
         <v>0</v>
       </c>
@@ -4385,8 +5491,11 @@
       <c r="C341" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D341" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="5" t="s">
         <v>2</v>
       </c>
@@ -4396,8 +5505,11 @@
       <c r="C342" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D342" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="5" t="s">
         <v>2</v>
       </c>
@@ -4407,8 +5519,11 @@
       <c r="C343" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D343" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="5" t="s">
         <v>3</v>
       </c>
@@ -4418,8 +5533,11 @@
       <c r="C344" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D344" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="5" t="s">
         <v>3</v>
       </c>
@@ -4429,8 +5547,11 @@
       <c r="C345" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D345" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="3" t="s">
         <v>1</v>
       </c>
@@ -4440,8 +5561,11 @@
       <c r="C346" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D346" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
         <v>1</v>
       </c>
@@ -4451,8 +5575,11 @@
       <c r="C347" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D347" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
         <v>1</v>
       </c>
@@ -4462,8 +5589,11 @@
       <c r="C348" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D348" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="5" t="s">
         <v>3</v>
       </c>
@@ -4473,8 +5603,11 @@
       <c r="C349" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D349" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="5" t="s">
         <v>3</v>
       </c>
@@ -4484,8 +5617,11 @@
       <c r="C350" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D350" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="5" t="s">
         <v>1</v>
       </c>
@@ -4495,8 +5631,11 @@
       <c r="C351" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D351" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="5" t="s">
         <v>3</v>
       </c>
@@ -4506,8 +5645,11 @@
       <c r="C352" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D352" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="5" t="s">
         <v>3</v>
       </c>
@@ -4517,8 +5659,11 @@
       <c r="C353" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D353" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="5" t="s">
         <v>3</v>
       </c>
@@ -4528,8 +5673,11 @@
       <c r="C354" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D354" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="5" t="s">
         <v>3</v>
       </c>
@@ -4539,8 +5687,11 @@
       <c r="C355" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D355" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="5" t="s">
         <v>3</v>
       </c>
@@ -4550,8 +5701,11 @@
       <c r="C356" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D356" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="5" t="s">
         <v>3</v>
       </c>
@@ -4561,8 +5715,11 @@
       <c r="C357" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D357" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="5" t="s">
         <v>0</v>
       </c>
@@ -4572,8 +5729,11 @@
       <c r="C358" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D358" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="5" t="s">
         <v>0</v>
       </c>
@@ -4583,8 +5743,11 @@
       <c r="C359" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D359" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="5" t="s">
         <v>0</v>
       </c>
@@ -4594,8 +5757,11 @@
       <c r="C360" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D360" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="5" t="s">
         <v>0</v>
       </c>
@@ -4605,8 +5771,11 @@
       <c r="C361" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D361" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="5" t="s">
         <v>0</v>
       </c>
@@ -4616,8 +5785,11 @@
       <c r="C362" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D362" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="5" t="s">
         <v>0</v>
       </c>
@@ -4627,8 +5799,11 @@
       <c r="C363" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D363" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="5" t="s">
         <v>1</v>
       </c>
@@ -4638,8 +5813,11 @@
       <c r="C364" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D364" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="5" t="s">
         <v>1</v>
       </c>
@@ -4649,8 +5827,11 @@
       <c r="C365" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D365" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="5" t="s">
         <v>1</v>
       </c>
@@ -4660,8 +5841,11 @@
       <c r="C366" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D366" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="5" t="s">
         <v>1</v>
       </c>
@@ -4671,8 +5855,11 @@
       <c r="C367" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D367" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="5" t="s">
         <v>1</v>
       </c>
@@ -4682,8 +5869,11 @@
       <c r="C368" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D368" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="5" t="s">
         <v>3</v>
       </c>
@@ -4693,8 +5883,11 @@
       <c r="C369" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D369" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="5" t="s">
         <v>3</v>
       </c>
@@ -4704,8 +5897,11 @@
       <c r="C370" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D370" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="5" t="s">
         <v>1</v>
       </c>
@@ -4715,8 +5911,11 @@
       <c r="C371" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D371" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="5" t="s">
         <v>1</v>
       </c>
@@ -4726,8 +5925,11 @@
       <c r="C372" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D372" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="5" t="s">
         <v>1</v>
       </c>
@@ -4737,8 +5939,11 @@
       <c r="C373" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D373" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="5" t="s">
         <v>1</v>
       </c>
@@ -4748,8 +5953,11 @@
       <c r="C374" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D374" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="5" t="s">
         <v>1</v>
       </c>
@@ -4759,8 +5967,11 @@
       <c r="C375" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D375" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A376" s="5" t="s">
         <v>1</v>
       </c>
@@ -4770,8 +5981,11 @@
       <c r="C376" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D376" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="5" t="s">
         <v>1</v>
       </c>
@@ -4781,8 +5995,11 @@
       <c r="C377" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D377" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="5" t="s">
         <v>0</v>
       </c>
@@ -4792,8 +6009,11 @@
       <c r="C378" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D378" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="5" t="s">
         <v>0</v>
       </c>
@@ -4803,8 +6023,11 @@
       <c r="C379" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D379" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="5" t="s">
         <v>0</v>
       </c>
@@ -4814,8 +6037,11 @@
       <c r="C380" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D380" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="5" t="s">
         <v>1</v>
       </c>
@@ -4825,8 +6051,11 @@
       <c r="C381" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D381" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="5" t="s">
         <v>0</v>
       </c>
@@ -4836,8 +6065,11 @@
       <c r="C382" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D382" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="5" t="s">
         <v>0</v>
       </c>
@@ -4847,8 +6079,11 @@
       <c r="C383" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D383" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="5" t="s">
         <v>3</v>
       </c>
@@ -4858,8 +6093,11 @@
       <c r="C384" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D384" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="5" t="s">
         <v>3</v>
       </c>
@@ -4869,8 +6107,11 @@
       <c r="C385" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D385" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="5" t="s">
         <v>3</v>
       </c>
@@ -4880,8 +6121,11 @@
       <c r="C386" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D386" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="5" t="s">
         <v>2</v>
       </c>
@@ -4891,8 +6135,11 @@
       <c r="C387" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D387" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="5" t="s">
         <v>3</v>
       </c>
@@ -4902,8 +6149,11 @@
       <c r="C388" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D388" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="5" t="s">
         <v>3</v>
       </c>
@@ -4913,8 +6163,11 @@
       <c r="C389" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D389" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="5" t="s">
         <v>0</v>
       </c>
@@ -4924,8 +6177,11 @@
       <c r="C390" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D390" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="5" t="s">
         <v>3</v>
       </c>
@@ -4935,8 +6191,11 @@
       <c r="C391" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D391" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="5" t="s">
         <v>3</v>
       </c>
@@ -4946,8 +6205,11 @@
       <c r="C392" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D392" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="5" t="s">
         <v>2</v>
       </c>
@@ -4957,8 +6219,11 @@
       <c r="C393" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D393" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" s="5" t="s">
         <v>2</v>
       </c>
@@ -4968,8 +6233,11 @@
       <c r="C394" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D394" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="5" t="s">
         <v>2</v>
       </c>
@@ -4979,8 +6247,11 @@
       <c r="C395" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D395" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="5" t="s">
         <v>2</v>
       </c>
@@ -4990,8 +6261,11 @@
       <c r="C396" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D396" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="5" t="s">
         <v>1</v>
       </c>
@@ -5001,8 +6275,11 @@
       <c r="C397" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D397" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" s="5" t="s">
         <v>2</v>
       </c>
@@ -5012,8 +6289,11 @@
       <c r="C398" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D398" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="5" t="s">
         <v>2</v>
       </c>
@@ -5023,8 +6303,11 @@
       <c r="C399" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D399" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" s="5" t="s">
         <v>2</v>
       </c>
@@ -5034,8 +6317,11 @@
       <c r="C400" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D400" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="5" t="s">
         <v>2</v>
       </c>
@@ -5045,8 +6331,11 @@
       <c r="C401" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D401" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="5" t="s">
         <v>2</v>
       </c>
@@ -5056,8 +6345,11 @@
       <c r="C402" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D402" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="5" t="s">
         <v>2</v>
       </c>
@@ -5067,8 +6359,11 @@
       <c r="C403" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D403" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" s="5" t="s">
         <v>2</v>
       </c>
@@ -5078,8 +6373,11 @@
       <c r="C404" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D404" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="5" t="s">
         <v>2</v>
       </c>
@@ -5089,8 +6387,11 @@
       <c r="C405" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D405" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="5" t="s">
         <v>2</v>
       </c>
@@ -5100,8 +6401,11 @@
       <c r="C406" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D406" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="5" t="s">
         <v>2</v>
       </c>
@@ -5111,8 +6415,11 @@
       <c r="C407" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D407" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" s="5" t="s">
         <v>2</v>
       </c>
@@ -5122,8 +6429,11 @@
       <c r="C408" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D408" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" s="5" t="s">
         <v>2</v>
       </c>
@@ -5133,8 +6443,11 @@
       <c r="C409" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="410" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D409" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A410" s="5" t="s">
         <v>2</v>
       </c>
@@ -5144,8 +6457,11 @@
       <c r="C410" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D410" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" s="5" t="s">
         <v>2</v>
       </c>
@@ -5155,8 +6471,11 @@
       <c r="C411" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D411" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="5" t="s">
         <v>2</v>
       </c>
@@ -5166,8 +6485,11 @@
       <c r="C412" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D412" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" s="5" t="s">
         <v>2</v>
       </c>
@@ -5177,8 +6499,11 @@
       <c r="C413" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D413" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" s="5" t="s">
         <v>0</v>
       </c>
@@ -5188,8 +6513,11 @@
       <c r="C414" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D414" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A415" s="5" t="s">
         <v>0</v>
       </c>
@@ -5199,8 +6527,11 @@
       <c r="C415" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D415" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A416" s="5" t="s">
         <v>0</v>
       </c>
@@ -5210,8 +6541,11 @@
       <c r="C416" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="417" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D416" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="5" t="s">
         <v>3</v>
       </c>
@@ -5221,8 +6555,11 @@
       <c r="C417" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="418" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D417" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A418" s="5" t="s">
         <v>3</v>
       </c>
@@ -5232,8 +6569,11 @@
       <c r="C418" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="419" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D418" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A419" s="5" t="s">
         <v>3</v>
       </c>
@@ -5243,8 +6583,11 @@
       <c r="C419" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="420" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D419" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A420" s="5" t="s">
         <v>3</v>
       </c>
@@ -5254,8 +6597,11 @@
       <c r="C420" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D420" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A421" s="5" t="s">
         <v>0</v>
       </c>
@@ -5265,8 +6611,11 @@
       <c r="C421" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D421" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A422" s="5" t="s">
         <v>0</v>
       </c>
@@ -5276,8 +6625,11 @@
       <c r="C422" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="423" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D422" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A423" s="5" t="s">
         <v>0</v>
       </c>
@@ -5287,8 +6639,11 @@
       <c r="C423" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="424" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D423" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A424" s="5" t="s">
         <v>0</v>
       </c>
@@ -5298,8 +6653,11 @@
       <c r="C424" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="425" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D424" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A425" s="5" t="s">
         <v>0</v>
       </c>
@@ -5309,8 +6667,11 @@
       <c r="C425" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="426" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D425" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426" s="5" t="s">
         <v>3</v>
       </c>
@@ -5320,8 +6681,11 @@
       <c r="C426" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="427" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D426" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A427" s="5" t="s">
         <v>0</v>
       </c>
@@ -5331,8 +6695,11 @@
       <c r="C427" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="428" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D427" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A428" s="5" t="s">
         <v>3</v>
       </c>
@@ -5342,8 +6709,11 @@
       <c r="C428" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="429" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D428" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A429" s="5" t="s">
         <v>3</v>
       </c>
@@ -5353,8 +6723,11 @@
       <c r="C429" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="430" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D429" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A430" s="5" t="s">
         <v>3</v>
       </c>
@@ -5364,8 +6737,11 @@
       <c r="C430" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="431" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D430" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A431" s="5" t="s">
         <v>3</v>
       </c>
@@ -5375,8 +6751,11 @@
       <c r="C431" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="432" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D431" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A432" s="5" t="s">
         <v>3</v>
       </c>
@@ -5386,8 +6765,11 @@
       <c r="C432" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="433" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D432" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A433" s="5" t="s">
         <v>3</v>
       </c>
@@ -5397,8 +6779,11 @@
       <c r="C433" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="434" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D433" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A434" s="5" t="s">
         <v>3</v>
       </c>
@@ -5408,8 +6793,11 @@
       <c r="C434" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="435" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D434" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A435" s="5" t="s">
         <v>3</v>
       </c>
@@ -5419,8 +6807,11 @@
       <c r="C435" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="436" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D435" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A436" s="5" t="s">
         <v>3</v>
       </c>
@@ -5430,8 +6821,11 @@
       <c r="C436" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="437" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D436" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A437" s="5" t="s">
         <v>3</v>
       </c>
@@ -5441,8 +6835,11 @@
       <c r="C437" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="438" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D437" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A438" s="5" t="s">
         <v>3</v>
       </c>
@@ -5452,8 +6849,11 @@
       <c r="C438" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="439" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D438" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A439" s="5" t="s">
         <v>3</v>
       </c>
@@ -5463,8 +6863,11 @@
       <c r="C439" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="440" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D439" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A440" s="5" t="s">
         <v>3</v>
       </c>
@@ -5474,8 +6877,11 @@
       <c r="C440" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="441" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D440" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A441" s="5" t="s">
         <v>3</v>
       </c>
@@ -5485,8 +6891,11 @@
       <c r="C441" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="442" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D441" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A442" s="5" t="s">
         <v>3</v>
       </c>
@@ -5496,8 +6905,11 @@
       <c r="C442" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="443" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D442" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A443" s="5" t="s">
         <v>3</v>
       </c>
@@ -5507,8 +6919,11 @@
       <c r="C443" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="444" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D443" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A444" s="5" t="s">
         <v>0</v>
       </c>
@@ -5518,8 +6933,11 @@
       <c r="C444" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="445" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D444" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A445" s="5" t="s">
         <v>1</v>
       </c>
@@ -5529,8 +6947,11 @@
       <c r="C445" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="446" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D445" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A446" s="5" t="s">
         <v>1</v>
       </c>
@@ -5540,8 +6961,11 @@
       <c r="C446" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="447" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D446" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A447" s="5" t="s">
         <v>3</v>
       </c>
@@ -5551,8 +6975,11 @@
       <c r="C447" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="448" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D447" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A448" s="3" t="s">
         <v>0</v>
       </c>
@@ -5562,8 +6989,11 @@
       <c r="C448" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="449" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D448" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A449" s="5" t="s">
         <v>0</v>
       </c>
@@ -5573,8 +7003,11 @@
       <c r="C449" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="450" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D449" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A450" s="5" t="s">
         <v>0</v>
       </c>
@@ -5584,8 +7017,11 @@
       <c r="C450" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="451" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D450" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A451" s="5" t="s">
         <v>0</v>
       </c>
@@ -5595,8 +7031,11 @@
       <c r="C451" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="452" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D451" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A452" s="5" t="s">
         <v>0</v>
       </c>
@@ -5606,8 +7045,11 @@
       <c r="C452" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="453" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D452" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A453" s="5" t="s">
         <v>0</v>
       </c>
@@ -5617,8 +7059,11 @@
       <c r="C453" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="454" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D453" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A454" s="5" t="s">
         <v>0</v>
       </c>
@@ -5628,8 +7073,11 @@
       <c r="C454" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="455" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D454" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A455" s="5" t="s">
         <v>0</v>
       </c>
@@ -5639,8 +7087,11 @@
       <c r="C455" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="456" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D455" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A456" s="5" t="s">
         <v>0</v>
       </c>
@@ -5650,8 +7101,11 @@
       <c r="C456" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="457" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D456" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A457" s="5" t="s">
         <v>1</v>
       </c>
@@ -5661,8 +7115,11 @@
       <c r="C457" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="458" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D457" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A458" s="5" t="s">
         <v>0</v>
       </c>
@@ -5672,8 +7129,11 @@
       <c r="C458" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="459" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D458" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A459" s="5" t="s">
         <v>0</v>
       </c>
@@ -5683,8 +7143,11 @@
       <c r="C459" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="460" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D459" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A460" s="5" t="s">
         <v>1</v>
       </c>
@@ -5694,8 +7157,11 @@
       <c r="C460" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="461" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D460" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A461" s="5" t="s">
         <v>1</v>
       </c>
@@ -5705,8 +7171,11 @@
       <c r="C461" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="462" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D461" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A462" s="5" t="s">
         <v>1</v>
       </c>
@@ -5716,8 +7185,11 @@
       <c r="C462" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="463" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D462" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A463" s="5" t="s">
         <v>1</v>
       </c>
@@ -5727,8 +7199,11 @@
       <c r="C463" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="464" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D463" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A464" s="5" t="s">
         <v>1</v>
       </c>
@@ -5738,8 +7213,11 @@
       <c r="C464" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="465" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D464" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A465" s="5" t="s">
         <v>1</v>
       </c>
@@ -5749,8 +7227,11 @@
       <c r="C465" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="466" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D465" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A466" s="5" t="s">
         <v>2</v>
       </c>
@@ -5760,8 +7241,11 @@
       <c r="C466" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="467" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D466" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A467" s="5" t="s">
         <v>2</v>
       </c>
@@ -5771,8 +7255,11 @@
       <c r="C467" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="468" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D467" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A468" s="5" t="s">
         <v>1</v>
       </c>
@@ -5782,8 +7269,11 @@
       <c r="C468" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="469" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D468" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A469" s="5" t="s">
         <v>2</v>
       </c>
@@ -5793,8 +7283,11 @@
       <c r="C469" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="470" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D469" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A470" s="5" t="s">
         <v>1</v>
       </c>
@@ -5804,8 +7297,11 @@
       <c r="C470" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="471" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D470" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A471" s="5" t="s">
         <v>1</v>
       </c>
@@ -5815,8 +7311,11 @@
       <c r="C471" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="472" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D471" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A472" s="5" t="s">
         <v>1</v>
       </c>
@@ -5826,8 +7325,11 @@
       <c r="C472" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="473" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D472" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A473" s="5" t="s">
         <v>1</v>
       </c>
@@ -5837,8 +7339,11 @@
       <c r="C473" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="474" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D473" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A474" s="5" t="s">
         <v>1</v>
       </c>
@@ -5848,8 +7353,11 @@
       <c r="C474" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="475" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D474" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A475" s="5" t="s">
         <v>0</v>
       </c>
@@ -5859,8 +7367,11 @@
       <c r="C475" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="476" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D475" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A476" s="5" t="s">
         <v>0</v>
       </c>
@@ -5870,8 +7381,11 @@
       <c r="C476" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="477" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D476" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A477" s="5" t="s">
         <v>0</v>
       </c>
@@ -5881,8 +7395,11 @@
       <c r="C477" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="478" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D477" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A478" s="5" t="s">
         <v>0</v>
       </c>
@@ -5892,8 +7409,11 @@
       <c r="C478" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="479" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D478" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A479" s="5" t="s">
         <v>3</v>
       </c>
@@ -5903,8 +7423,11 @@
       <c r="C479" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="480" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D479" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A480" s="5" t="s">
         <v>3</v>
       </c>
@@ -5914,8 +7437,11 @@
       <c r="C480" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="481" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D480" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A481" s="5" t="s">
         <v>3</v>
       </c>
@@ -5925,8 +7451,11 @@
       <c r="C481" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="482" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D481" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A482" s="5" t="s">
         <v>3</v>
       </c>
@@ -5936,8 +7465,11 @@
       <c r="C482" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="483" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D482" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A483" s="5" t="s">
         <v>2</v>
       </c>
@@ -5947,8 +7479,11 @@
       <c r="C483" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="484" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D483" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A484" s="5" t="s">
         <v>2</v>
       </c>
@@ -5958,8 +7493,11 @@
       <c r="C484" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="485" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D484" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A485" s="5" t="s">
         <v>2</v>
       </c>
@@ -5969,8 +7507,11 @@
       <c r="C485" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="486" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D485" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A486" s="5" t="s">
         <v>2</v>
       </c>
@@ -5980,8 +7521,11 @@
       <c r="C486" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="487" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D486" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A487" s="5" t="s">
         <v>2</v>
       </c>
@@ -5991,8 +7535,11 @@
       <c r="C487" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="488" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D487" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A488" s="3" t="s">
         <v>3</v>
       </c>
@@ -6002,8 +7549,11 @@
       <c r="C488" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="489" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D488" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A489" s="5" t="s">
         <v>1</v>
       </c>
@@ -6013,8 +7563,11 @@
       <c r="C489" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="490" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D489" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A490" s="5" t="s">
         <v>1</v>
       </c>
@@ -6024,8 +7577,11 @@
       <c r="C490" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="491" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D490" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A491" s="5" t="s">
         <v>1</v>
       </c>
@@ -6035,8 +7591,11 @@
       <c r="C491" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="492" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D491" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A492" s="5" t="s">
         <v>0</v>
       </c>
@@ -6046,8 +7605,11 @@
       <c r="C492" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="493" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D492" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A493" s="5" t="s">
         <v>2</v>
       </c>
@@ -6057,8 +7619,11 @@
       <c r="C493" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="494" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D493" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A494" s="5" t="s">
         <v>3</v>
       </c>
@@ -6068,8 +7633,11 @@
       <c r="C494" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="495" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D494" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A495" s="5" t="s">
         <v>2</v>
       </c>
@@ -6079,8 +7647,11 @@
       <c r="C495" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="496" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D495" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A496" s="5" t="s">
         <v>2</v>
       </c>
@@ -6090,8 +7661,11 @@
       <c r="C496" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="497" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D496" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A497" s="5" t="s">
         <v>3</v>
       </c>
@@ -6101,8 +7675,11 @@
       <c r="C497" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="498" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D497" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A498" s="3" t="s">
         <v>3</v>
       </c>
@@ -6112,8 +7689,11 @@
       <c r="C498" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="499" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D498" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A499" s="3" t="s">
         <v>3</v>
       </c>
@@ -6123,8 +7703,11 @@
       <c r="C499" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="500" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D499" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A500" s="5" t="s">
         <v>2</v>
       </c>
@@ -6134,8 +7717,11 @@
       <c r="C500" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="501" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D500" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A501" s="5" t="s">
         <v>0</v>
       </c>
@@ -6145,8 +7731,11 @@
       <c r="C501" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="502" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D501" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A502" s="5" t="s">
         <v>0</v>
       </c>
@@ -6156,8 +7745,11 @@
       <c r="C502" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="503" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D502" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A503" s="5" t="s">
         <v>0</v>
       </c>
@@ -6167,8 +7759,11 @@
       <c r="C503" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="504" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D503" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A504" s="5" t="s">
         <v>0</v>
       </c>
@@ -6178,8 +7773,11 @@
       <c r="C504" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="505" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D504" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A505" s="5" t="s">
         <v>1</v>
       </c>
@@ -6189,8 +7787,11 @@
       <c r="C505" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="506" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D505" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A506" s="5" t="s">
         <v>1</v>
       </c>
@@ -6200,8 +7801,11 @@
       <c r="C506" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="507" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D506" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A507" s="5" t="s">
         <v>1</v>
       </c>
@@ -6211,8 +7815,11 @@
       <c r="C507" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="508" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D507" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A508" s="5" t="s">
         <v>1</v>
       </c>
@@ -6222,8 +7829,11 @@
       <c r="C508" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="509" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D508" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A509" s="5" t="s">
         <v>2</v>
       </c>
@@ -6233,8 +7843,11 @@
       <c r="C509" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="510" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D509" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A510" s="5" t="s">
         <v>2</v>
       </c>
@@ -6244,8 +7857,11 @@
       <c r="C510" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="511" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D510" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A511" s="5" t="s">
         <v>2</v>
       </c>
@@ -6255,8 +7871,11 @@
       <c r="C511" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="512" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D511" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A512" s="5" t="s">
         <v>2</v>
       </c>
@@ -6266,8 +7885,11 @@
       <c r="C512" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="513" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D512" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A513" s="5" t="s">
         <v>3</v>
       </c>
@@ -6277,8 +7899,11 @@
       <c r="C513" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="514" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D513" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A514" s="5" t="s">
         <v>3</v>
       </c>
@@ -6288,8 +7913,11 @@
       <c r="C514" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="515" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D514" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A515" s="5" t="s">
         <v>3</v>
       </c>
@@ -6299,8 +7927,11 @@
       <c r="C515" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="516" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D515" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A516" s="5" t="s">
         <v>3</v>
       </c>
@@ -6310,8 +7941,11 @@
       <c r="C516" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="517" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D516" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A517" s="5" t="s">
         <v>3</v>
       </c>
@@ -6321,8 +7955,11 @@
       <c r="C517" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="518" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D517" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A518" s="5" t="s">
         <v>3</v>
       </c>
@@ -6332,8 +7969,11 @@
       <c r="C518" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="519" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D518" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A519" s="5" t="s">
         <v>0</v>
       </c>
@@ -6343,8 +7983,11 @@
       <c r="C519" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="520" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D519" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A520" s="5" t="s">
         <v>0</v>
       </c>
@@ -6354,8 +7997,11 @@
       <c r="C520" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="521" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D520" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A521" s="5" t="s">
         <v>0</v>
       </c>
@@ -6365,8 +8011,11 @@
       <c r="C521" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="522" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D521" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A522" s="5" t="s">
         <v>1</v>
       </c>
@@ -6376,8 +8025,11 @@
       <c r="C522" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="523" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D522" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A523" s="5" t="s">
         <v>1</v>
       </c>
@@ -6387,8 +8039,11 @@
       <c r="C523" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="524" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D523" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A524" s="5" t="s">
         <v>2</v>
       </c>
@@ -6398,8 +8053,11 @@
       <c r="C524" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="525" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D524" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A525" s="5" t="s">
         <v>2</v>
       </c>
@@ -6409,8 +8067,11 @@
       <c r="C525" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="526" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D525" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A526" s="5" t="s">
         <v>2</v>
       </c>
@@ -6420,8 +8081,11 @@
       <c r="C526" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="527" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D526" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A527" s="5" t="s">
         <v>3</v>
       </c>
@@ -6431,8 +8095,11 @@
       <c r="C527" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="528" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D527" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A528" s="5" t="s">
         <v>3</v>
       </c>
@@ -6442,8 +8109,11 @@
       <c r="C528" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="529" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D528" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A529" s="5" t="s">
         <v>3</v>
       </c>
@@ -6453,8 +8123,11 @@
       <c r="C529" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="530" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D529" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A530" s="5" t="s">
         <v>3</v>
       </c>
@@ -6464,8 +8137,11 @@
       <c r="C530" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="531" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D530" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A531" s="5" t="s">
         <v>3</v>
       </c>
@@ -6475,8 +8151,11 @@
       <c r="C531" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="532" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D531" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A532" s="5" t="s">
         <v>2</v>
       </c>
@@ -6486,8 +8165,11 @@
       <c r="C532" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="533" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D532" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A533" s="5" t="s">
         <v>0</v>
       </c>
@@ -6497,8 +8179,11 @@
       <c r="C533" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="534" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D533" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A534" s="5" t="s">
         <v>0</v>
       </c>
@@ -6508,8 +8193,11 @@
       <c r="C534" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="535" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D534" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A535" s="5" t="s">
         <v>2</v>
       </c>
@@ -6519,8 +8207,11 @@
       <c r="C535" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="536" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D535" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A536" s="5" t="s">
         <v>2</v>
       </c>
@@ -6530,8 +8221,11 @@
       <c r="C536" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="537" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D536" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A537" s="5" t="s">
         <v>2</v>
       </c>
@@ -6541,8 +8235,11 @@
       <c r="C537" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="538" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D537" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A538" s="5" t="s">
         <v>2</v>
       </c>
@@ -6552,8 +8249,11 @@
       <c r="C538" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="539" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D538" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A539" s="5" t="s">
         <v>3</v>
       </c>
@@ -6563,8 +8263,11 @@
       <c r="C539" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="540" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D539" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A540" s="5" t="s">
         <v>3</v>
       </c>
@@ -6574,8 +8277,11 @@
       <c r="C540" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="541" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D540" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A541" s="3" t="s">
         <v>3</v>
       </c>
@@ -6585,8 +8291,11 @@
       <c r="C541" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="542" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D541" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A542" s="3" t="s">
         <v>0</v>
       </c>
@@ -6596,8 +8305,11 @@
       <c r="C542" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="543" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D542" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A543" s="3" t="s">
         <v>0</v>
       </c>
@@ -6607,8 +8319,11 @@
       <c r="C543" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="544" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D543" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A544" s="5" t="s">
         <v>1</v>
       </c>
@@ -6618,8 +8333,11 @@
       <c r="C544" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="545" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D544" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A545" s="5" t="s">
         <v>1</v>
       </c>
@@ -6629,8 +8347,11 @@
       <c r="C545" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="546" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D545" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A546" s="5" t="s">
         <v>1</v>
       </c>
@@ -6640,8 +8361,11 @@
       <c r="C546" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="547" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D546" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A547" s="5" t="s">
         <v>1</v>
       </c>
@@ -6651,8 +8375,11 @@
       <c r="C547" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="548" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D547" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A548" s="5" t="s">
         <v>0</v>
       </c>
@@ -6662,8 +8389,11 @@
       <c r="C548" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="549" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D548" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A549" s="5" t="s">
         <v>2</v>
       </c>
@@ -6673,8 +8403,11 @@
       <c r="C549" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="550" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D549" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A550" s="5" t="s">
         <v>0</v>
       </c>
@@ -6684,8 +8417,11 @@
       <c r="C550" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="551" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D550" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A551" s="5" t="s">
         <v>0</v>
       </c>
@@ -6695,8 +8431,11 @@
       <c r="C551" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="552" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D551" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A552" s="5" t="s">
         <v>0</v>
       </c>
@@ -6706,8 +8445,11 @@
       <c r="C552" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="553" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D552" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A553" s="5" t="s">
         <v>0</v>
       </c>
@@ -6717,8 +8459,11 @@
       <c r="C553" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="554" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D553" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A554" s="5" t="s">
         <v>0</v>
       </c>
@@ -6728,8 +8473,11 @@
       <c r="C554" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="555" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D554" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A555" s="5" t="s">
         <v>1</v>
       </c>
@@ -6739,8 +8487,11 @@
       <c r="C555" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="556" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D555" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A556" s="5" t="s">
         <v>3</v>
       </c>
@@ -6750,8 +8501,11 @@
       <c r="C556" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="557" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D556" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A557" s="3" t="s">
         <v>3</v>
       </c>
@@ -6761,8 +8515,11 @@
       <c r="C557" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="558" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D557" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A558" s="5" t="s">
         <v>3</v>
       </c>
@@ -6772,8 +8529,11 @@
       <c r="C558" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="559" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D558" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A559" s="5" t="s">
         <v>2</v>
       </c>
@@ -6783,8 +8543,11 @@
       <c r="C559" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="560" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D559" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A560" s="5" t="s">
         <v>2</v>
       </c>
@@ -6794,8 +8557,11 @@
       <c r="C560" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="561" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D560" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A561" s="5" t="s">
         <v>2</v>
       </c>
@@ -6805,8 +8571,11 @@
       <c r="C561" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="562" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D561" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A562" s="5" t="s">
         <v>2</v>
       </c>
@@ -6816,8 +8585,11 @@
       <c r="C562" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="563" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D562" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A563" s="5" t="s">
         <v>1</v>
       </c>
@@ -6827,8 +8599,11 @@
       <c r="C563" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="564" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D563" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A564" s="5" t="s">
         <v>1</v>
       </c>
@@ -6838,8 +8613,11 @@
       <c r="C564" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="565" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D564" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A565" s="5" t="s">
         <v>1</v>
       </c>
@@ -6849,8 +8627,11 @@
       <c r="C565" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="566" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D565" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A566" s="5" t="s">
         <v>0</v>
       </c>
@@ -6860,8 +8641,11 @@
       <c r="C566" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="567" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D566" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A567" s="5" t="s">
         <v>0</v>
       </c>
@@ -6871,8 +8655,11 @@
       <c r="C567" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="568" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D567" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A568" s="5" t="s">
         <v>0</v>
       </c>
@@ -6882,8 +8669,11 @@
       <c r="C568" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="569" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D568" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A569" s="5" t="s">
         <v>0</v>
       </c>
@@ -6893,8 +8683,11 @@
       <c r="C569" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="570" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D569" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A570" s="5" t="s">
         <v>0</v>
       </c>
@@ -6904,8 +8697,11 @@
       <c r="C570" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="571" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D570" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A571" s="5" t="s">
         <v>0</v>
       </c>
@@ -6915,8 +8711,11 @@
       <c r="C571" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="572" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D571" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A572" s="5" t="s">
         <v>0</v>
       </c>
@@ -6926,8 +8725,11 @@
       <c r="C572" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="573" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D572" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A573" s="5" t="s">
         <v>0</v>
       </c>
@@ -6937,8 +8739,11 @@
       <c r="C573" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="574" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D573" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A574" s="5" t="s">
         <v>1</v>
       </c>
@@ -6948,8 +8753,11 @@
       <c r="C574" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="575" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D574" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A575" s="5" t="s">
         <v>1</v>
       </c>
@@ -6959,8 +8767,11 @@
       <c r="C575" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="576" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D575" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A576" s="5" t="s">
         <v>1</v>
       </c>
@@ -6970,8 +8781,11 @@
       <c r="C576" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="577" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D576" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A577" s="5" t="s">
         <v>1</v>
       </c>
@@ -6981,8 +8795,11 @@
       <c r="C577" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="578" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D577" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A578" s="5" t="s">
         <v>1</v>
       </c>
@@ -6992,8 +8809,11 @@
       <c r="C578" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="579" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D578" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A579" s="5" t="s">
         <v>3</v>
       </c>
@@ -7003,8 +8823,11 @@
       <c r="C579" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="580" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D579" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A580" s="5" t="s">
         <v>2</v>
       </c>
@@ -7014,8 +8837,11 @@
       <c r="C580" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="581" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D580" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A581" s="5" t="s">
         <v>2</v>
       </c>
@@ -7025,8 +8851,11 @@
       <c r="C581" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="582" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D581" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A582" s="5" t="s">
         <v>2</v>
       </c>
@@ -7036,8 +8865,11 @@
       <c r="C582" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="583" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D582" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A583" s="5" t="s">
         <v>1</v>
       </c>
@@ -7047,8 +8879,11 @@
       <c r="C583" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="584" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D583" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A584" s="5" t="s">
         <v>3</v>
       </c>
@@ -7058,8 +8893,11 @@
       <c r="C584" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="585" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D584" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A585" s="5" t="s">
         <v>3</v>
       </c>
@@ -7069,8 +8907,11 @@
       <c r="C585" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="586" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D585" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A586" s="5" t="s">
         <v>3</v>
       </c>
@@ -7080,8 +8921,11 @@
       <c r="C586" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="587" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D586" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A587" s="5" t="s">
         <v>2</v>
       </c>
@@ -7091,8 +8935,11 @@
       <c r="C587" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="588" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D587" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A588" s="5" t="s">
         <v>2</v>
       </c>
@@ -7102,8 +8949,11 @@
       <c r="C588" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="589" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D588" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A589" s="5" t="s">
         <v>2</v>
       </c>
@@ -7113,8 +8963,11 @@
       <c r="C589" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="590" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D589" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A590" s="5" t="s">
         <v>2</v>
       </c>
@@ -7124,8 +8977,11 @@
       <c r="C590" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="591" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D590" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A591" s="5" t="s">
         <v>2</v>
       </c>
@@ -7135,8 +8991,11 @@
       <c r="C591" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="592" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D591" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A592" s="5" t="s">
         <v>2</v>
       </c>
@@ -7146,8 +9005,11 @@
       <c r="C592" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="593" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D592" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A593" s="5" t="s">
         <v>1</v>
       </c>
@@ -7157,8 +9019,11 @@
       <c r="C593" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="594" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D593" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A594" s="5" t="s">
         <v>1</v>
       </c>
@@ -7168,8 +9033,11 @@
       <c r="C594" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="595" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D594" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A595" s="5" t="s">
         <v>0</v>
       </c>
@@ -7179,8 +9047,11 @@
       <c r="C595" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="596" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D595" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A596" s="5" t="s">
         <v>0</v>
       </c>
@@ -7190,8 +9061,11 @@
       <c r="C596" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="597" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D596" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A597" s="5" t="s">
         <v>1</v>
       </c>
@@ -7201,8 +9075,11 @@
       <c r="C597" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="598" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D597" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A598" s="5" t="s">
         <v>2</v>
       </c>
@@ -7212,8 +9089,11 @@
       <c r="C598" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="599" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D598" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A599" s="5" t="s">
         <v>3</v>
       </c>
@@ -7223,8 +9103,11 @@
       <c r="C599" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="600" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D599" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A600" s="5" t="s">
         <v>3</v>
       </c>
@@ -7234,8 +9117,11 @@
       <c r="C600" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="601" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D600" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A601" s="5" t="s">
         <v>0</v>
       </c>
@@ -7245,8 +9131,11 @@
       <c r="C601" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="602" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D601" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A602" s="5" t="s">
         <v>0</v>
       </c>
@@ -7256,8 +9145,11 @@
       <c r="C602" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="603" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D602" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A603" s="5" t="s">
         <v>0</v>
       </c>
@@ -7267,8 +9159,11 @@
       <c r="C603" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="604" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D603" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A604" s="5" t="s">
         <v>0</v>
       </c>
@@ -7278,8 +9173,11 @@
       <c r="C604" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="605" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D604" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A605" s="5" t="s">
         <v>0</v>
       </c>
@@ -7289,8 +9187,11 @@
       <c r="C605" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="606" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D605" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A606" s="5" t="s">
         <v>1</v>
       </c>
@@ -7300,8 +9201,11 @@
       <c r="C606" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="607" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D606" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A607" s="5" t="s">
         <v>1</v>
       </c>
@@ -7311,8 +9215,11 @@
       <c r="C607" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="608" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D607" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A608" s="5" t="s">
         <v>1</v>
       </c>
@@ -7322,8 +9229,11 @@
       <c r="C608" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="609" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D608" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A609" s="3" t="s">
         <v>2</v>
       </c>
@@ -7333,8 +9243,11 @@
       <c r="C609" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="610" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D609" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A610" s="5" t="s">
         <v>2</v>
       </c>
@@ -7344,8 +9257,11 @@
       <c r="C610" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="611" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D610" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A611" s="5" t="s">
         <v>2</v>
       </c>
@@ -7355,8 +9271,11 @@
       <c r="C611" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="612" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D611" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A612" s="5" t="s">
         <v>2</v>
       </c>
@@ -7366,8 +9285,11 @@
       <c r="C612" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="613" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D612" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A613" s="5" t="s">
         <v>2</v>
       </c>
@@ -7377,8 +9299,11 @@
       <c r="C613" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="614" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D613" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A614" s="5" t="s">
         <v>2</v>
       </c>
@@ -7388,8 +9313,11 @@
       <c r="C614" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="615" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D614" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A615" s="5" t="s">
         <v>2</v>
       </c>
@@ -7399,8 +9327,11 @@
       <c r="C615" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="616" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D615" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A616" s="5" t="s">
         <v>2</v>
       </c>
@@ -7410,8 +9341,11 @@
       <c r="C616" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="617" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D616" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A617" s="5" t="s">
         <v>2</v>
       </c>
@@ -7421,8 +9355,11 @@
       <c r="C617" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="618" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D617" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A618" s="5" t="s">
         <v>2</v>
       </c>
@@ -7432,8 +9369,11 @@
       <c r="C618" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="619" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D618" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A619" s="5" t="s">
         <v>3</v>
       </c>
@@ -7443,8 +9383,11 @@
       <c r="C619" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="620" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D619" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A620" s="5" t="s">
         <v>3</v>
       </c>
@@ -7454,8 +9397,11 @@
       <c r="C620" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="621" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D620" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A621" s="5" t="s">
         <v>2</v>
       </c>
@@ -7465,8 +9411,11 @@
       <c r="C621" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="622" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D621" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A622" s="5" t="s">
         <v>2</v>
       </c>
@@ -7476,8 +9425,11 @@
       <c r="C622" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="623" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D622" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A623" s="5" t="s">
         <v>3</v>
       </c>
@@ -7487,8 +9439,11 @@
       <c r="C623" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="624" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D623" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A624" s="5" t="s">
         <v>2</v>
       </c>
@@ -7498,8 +9453,11 @@
       <c r="C624" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="625" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D624" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A625" s="5" t="s">
         <v>2</v>
       </c>
@@ -7509,8 +9467,11 @@
       <c r="C625" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="626" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D625" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A626" s="5" t="s">
         <v>0</v>
       </c>
@@ -7520,8 +9481,11 @@
       <c r="C626" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="627" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D626" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A627" s="5" t="s">
         <v>1</v>
       </c>
@@ -7531,8 +9495,11 @@
       <c r="C627" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="628" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D627" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A628" s="5" t="s">
         <v>1</v>
       </c>
@@ -7542,8 +9509,11 @@
       <c r="C628" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="629" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D628" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A629" s="3" t="s">
         <v>2</v>
       </c>
@@ -7552,6 +9522,9 @@
       </c>
       <c r="C629" s="3" t="s">
         <v>27</v>
+      </c>
+      <c r="D629" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
